--- a/biology/Zoologie/Aleuron_iphis/Aleuron_iphis.xlsx
+++ b/biology/Zoologie/Aleuron_iphis/Aleuron_iphis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aleuron iphis est une espèce de lépidoptères (papillons) de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Dilophonotini et du genre Aleuron .  
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure des ailes varie de 52 à 57 mm. La face dorsale de l'aile antérieure est traversée par le milieu de quatre lignes parallèles.
 			Vue dorsale de la femelle(coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L'espèce est connue au Mexique, Belize, Guatemala, Nicaragua, Costa Rica, Venezuela, Bolivie et Brésil.
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les adultes volent au moins de juillet à janvier au Costa Rica.
 Les chenilles se nourrissent sur Doliocarpus dentatus, Curatella americana et probablement d'autres espèces de Dilleniaceae.</t>
@@ -607,13 +625,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce  Aleuron iphis a été décrite par l'entomologiste britannique Francis Walker en 1856, sous le nom initial d'Enyo iphis[1].
-La localité type est l'état de Pará au Brésil.
-Synonymie
-Enyo iphis Walker, 1856 Protonyme
-Tylognathus scriptor R. Felder, [1874][2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce  Aleuron iphis a été décrite par l'entomologiste britannique Francis Walker en 1856, sous le nom initial d'Enyo iphis.
+La localité type est l'état de Pará au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aleuron_iphis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aleuron_iphis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Enyo iphis Walker, 1856 Protonyme
+Tylognathus scriptor R. Felder, 
 Calliomma volatica Clemens, 1859
 Aleuron volatica (Clemens, 1859)</t>
         </is>
